--- a/FieldMonster_Data.xlsx
+++ b/FieldMonster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C680ACC-752D-4002-944D-7D9687EBA33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077FD5D-7CC4-4409-9E60-0A750B204160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="7920" yWindow="2595" windowWidth="20190" windowHeight="11880" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>#FieldMonster{{}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$key</t>
   </si>
   <si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>BullA</t>
+  </si>
+  <si>
+    <t>#FieldMonster[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -520,48 +520,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
